--- a/DATA/specimen158.xlsx
+++ b/DATA/specimen158.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Onderzoek/n supraorbi occipitalis major/python xlsx files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_7F8540FCF613C8264F2C4C203D59C17D75DE4F21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0EEE14-116D-423F-8617-15614FF7518A}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="2280" windowWidth="37590" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -187,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,23 +241,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -305,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,27 +323,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,24 +357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,17 +532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -600,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -608,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.7837506008687782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.783750600868778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -619,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>9.7837506008687782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.783750600868778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -630,10 +577,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10.205652329469199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10.2056523294692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -644,7 +591,7 @@
         <v>15.0529395468128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -652,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>20.939446100601611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20.93944610060161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -663,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>55.981788577752383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55.98178857775238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -674,10 +621,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>55.981788577752383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55.98178857775238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -685,7 +632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -693,7 +640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -701,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -709,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -717,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -725,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -733,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -741,10 +688,10 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>9.7837506008687782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.783750600868778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -752,10 +699,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>9.7837506008687782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.783750600868778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -763,10 +710,10 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>21.255522538389901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21.2555225383899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -774,10 +721,10 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>17.131160836615852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17.13116083661585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -788,7 +735,7 @@
         <v>19.97086361803111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -796,10 +743,10 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>68.141297593905648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68.14129759390565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -807,10 +754,10 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>68.141297593905648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68.14129759390565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -821,7 +768,7 @@
         <v>16.08719794899039</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -829,10 +776,10 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>16.658199242415151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16.65819924241515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -843,7 +790,7 @@
         <v>14.64567120531181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -851,10 +798,10 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>14.653184078284839</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14.65318407828484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -862,10 +809,10 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>16.495249689595479</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16.49524968959548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -873,10 +820,10 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>61.881302922182527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>61.88130292218253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -884,10 +831,10 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>62.452304215607278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62.45230421560728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -898,7 +845,7 @@
         <v>16.08719794899039</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -906,10 +853,10 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>16.658199242415151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16.65819924241515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -917,10 +864,10 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>20.256495922789789</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20.25649592278979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -928,10 +875,10 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>22.375489168912061</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22.37548916891206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -939,10 +886,10 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>17.417725435317301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17.4177254353173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -950,10 +897,10 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>76.136908476009538</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76.13690847600954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -961,10 +908,10 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>76.707909769434295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76.70790976943429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -975,7 +922,7 @@
         <v>16.08719794899039</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -983,10 +930,10 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>16.658199242415151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16.65819924241515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -997,7 +944,7 @@
         <v>21.37680629533093</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1005,10 +952,10 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>18.474232731564229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18.47423273156423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1016,10 +963,10 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>16.337272349327488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16.33727234932749</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1027,10 +974,10 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>72.275509325213037</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72.27550932521304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1038,10 +985,10 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>72.846510618637794</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72.84651061863779</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1049,10 +996,10 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>51.265655863550627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51.26565586355063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1060,10 +1007,10 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>52.002633708399827</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52.00263370839983</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1074,7 +1021,7 @@
         <v>102.0265162779755</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1085,7 +1032,7 @@
         <v>54.63675317091964</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1093,10 +1040,10 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>60.982662917193913</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60.98266291719391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1104,10 +1051,10 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>62.290419118833988</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62.29041911883399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1115,10 +1062,10 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>57.221065900960809</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57.22106590096081</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1126,7 +1073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1134,7 +1081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1142,7 +1089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
